--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R7c92fbaf83a44ea8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rc0f6872ffe5a4d31"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rc0f6872ffe5a4d31"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R6c282b3e17044018"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R6c282b3e17044018"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R3cfeafcdf6fe430f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R3cfeafcdf6fe430f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd3474ed4f39f49f6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd3474ed4f39f49f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd68b9bf9e400423b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd68b9bf9e400423b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rabf92be423b6416d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rabf92be423b6416d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R9fcce10c7bf94da9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R9fcce10c7bf94da9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R8de5df1f518f48fd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R8de5df1f518f48fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1a6a059632e84d5d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1a6a059632e84d5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rc8c743cb37994bab"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rc8c743cb37994bab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R31edf32c9e5f4900"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R31edf32c9e5f4900"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R90b119902d604af9"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R90b119902d604af9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rfd63616d1e244f22"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rfd63616d1e244f22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1cec41ee3cfe486f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1cec41ee3cfe486f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd5dea37dba684869"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd5dea37dba684869"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rec287cbbf93b47f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rec287cbbf93b47f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rac07a255b4c44e55"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rac07a255b4c44e55"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R09f0107344624e21"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R09f0107344624e21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd220118a8c504eec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd220118a8c504eec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rfe80659706914908"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rfe80659706914908"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R976979338ffb423f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R976979338ffb423f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1b88667fd7ec46cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1b88667fd7ec46cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Re93379518d864dd9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Re93379518d864dd9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Ra1ee99932bb34a69"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Ra1ee99932bb34a69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R8357acc71879423f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R8357acc71879423f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R110d2e52f5114caa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R110d2e52f5114caa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R142af6e7fb9840b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R142af6e7fb9840b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R408139d3de3849f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R408139d3de3849f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R5bcb0bbba79a43e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R5bcb0bbba79a43e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd42525b58ab2487f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rd42525b58ab2487f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R07b88378f61e495d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R07b88378f61e495d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R124f4cea46c14b1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R124f4cea46c14b1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1670adccb148422e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R1670adccb148422e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R402cff6b1aa14d0f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R402cff6b1aa14d0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rb3cfc4bc245c4886"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rb3cfc4bc245c4886"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R8b555dcb671d4233"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R8b555dcb671d4233"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R820c42cd6b8642de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R820c42cd6b8642de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R3d1ecc7f4f7d41d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/37_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R3d1ecc7f4f7d41d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rafff745e7162425f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
